--- a/hw1/q4.xlsx
+++ b/hw1/q4.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26840" yWindow="1840" windowWidth="22640" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="2000" yWindow="2200" windowWidth="13260" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -167,10 +167,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -180,9 +176,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Distance vs RTT/T</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -257,7 +250,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -265,17 +257,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2108527528"/>
-        <c:axId val="-2112741512"/>
+        <c:axId val="2054035080"/>
+        <c:axId val="2054044424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2108527528"/>
+        <c:axId val="2054035080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance (km)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -283,12 +290,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112741512"/>
+        <c:crossAx val="2054044424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2112741512"/>
+        <c:axId val="2054044424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -296,6 +303,21 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RT/T</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -303,16 +325,11 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108527528"/>
+        <c:crossAx val="2054035080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -329,16 +346,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -685,7 +702,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -898,7 +915,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
